--- a/test_data/zoomview_login_data.xlsx
+++ b/test_data/zoomview_login_data.xlsx
@@ -36,12 +36,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>jack.demo12@gmail.com</t>
-  </si>
-  <si>
-    <t>De11o@1234</t>
-  </si>
-  <si>
     <t>jack.de@gmail.com</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>jack.demo11@gmail.com</t>
+  </si>
+  <si>
+    <t>Demo11@1234</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,32 +442,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
